--- a/Meeting Log.xlsx
+++ b/Meeting Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgatton/Documents/GitHub/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A84FC3-762A-E644-BD89-3CF021E37ED8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2FC36B-AAF7-0743-8A98-2924D051E0C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24600" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Day</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>and start working on map generation</t>
+  </si>
+  <si>
+    <t>5:00-7:30 om</t>
+  </si>
+  <si>
+    <t>Started working on Proedural generation</t>
+  </si>
+  <si>
+    <t>Chose sprites we wanted to use for the map</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Finish map gerneration and start working on characters and</t>
+  </si>
+  <si>
+    <t>game logic.</t>
   </si>
 </sst>
 </file>
@@ -125,18 +143,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9933"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -150,6 +156,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,22 +192,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -202,15 +229,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -509,7 +527,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -543,128 +561,146 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>43173</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="14">
         <v>43185</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="A6" s="16">
+        <v>43186</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>

--- a/Meeting Log.xlsx
+++ b/Meeting Log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgatton/Documents/GitHub/Project3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Documents\GitHub\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2FC36B-AAF7-0743-8A98-2924D051E0C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24600" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24600" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Day</t>
   </si>
@@ -78,9 +77,6 @@
     <t>and start working on map generation</t>
   </si>
   <si>
-    <t>5:00-7:30 om</t>
-  </si>
-  <si>
     <t>Started working on Proedural generation</t>
   </si>
   <si>
@@ -94,12 +90,39 @@
   </si>
   <si>
     <t>game logic.</t>
+  </si>
+  <si>
+    <t>9:00 - 11:00 pm</t>
+  </si>
+  <si>
+    <t>5:00-7:30 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made progress on map generation </t>
+  </si>
+  <si>
+    <t>Found bugs causing the map to not generate correctly</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Meet after class and polish off map generation</t>
+  </si>
+  <si>
+    <t>9:00 - 10:00 am</t>
+  </si>
+  <si>
+    <t>Worked on fixing generation when stuck</t>
+  </si>
+  <si>
+    <t>Continue with fixing it getting stuck</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,24 +546,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="47.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="59" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.33203125" customWidth="1"/>
+    <col min="6" max="6" width="52.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -560,7 +583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>43173</v>
       </c>
@@ -580,7 +603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -592,7 +615,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>43185</v>
       </c>
@@ -609,10 +632,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -622,95 +645,121 @@
       </c>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>43186</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>43191</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>43192</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -718,7 +767,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -726,7 +775,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -734,7 +783,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -742,7 +791,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -750,7 +799,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -758,7 +807,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -766,7 +815,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -774,7 +823,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -782,7 +831,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -790,7 +839,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -798,7 +847,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -806,7 +855,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -814,7 +863,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -822,7 +871,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -830,7 +879,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -838,7 +887,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -846,7 +895,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -854,7 +903,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -862,7 +911,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -870,7 +919,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -878,7 +927,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -886,7 +935,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -894,7 +943,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -902,7 +951,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -910,7 +959,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -918,7 +967,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -926,7 +975,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -934,7 +983,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -942,7 +991,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -950,7 +999,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -958,7 +1007,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -966,7 +1015,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -974,7 +1023,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -982,7 +1031,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -990,7 +1039,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -998,7 +1047,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1006,7 +1055,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1014,7 +1063,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1022,7 +1071,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1030,7 +1079,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1038,7 +1087,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1046,7 +1095,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1054,7 +1103,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1062,7 +1111,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1070,7 +1119,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1078,7 +1127,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1086,7 +1135,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1094,7 +1143,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1102,7 +1151,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1110,7 +1159,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1118,7 +1167,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1126,7 +1175,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1134,7 +1183,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1142,7 +1191,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1150,7 +1199,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1158,7 +1207,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1166,7 +1215,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1174,7 +1223,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1182,7 +1231,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1190,7 +1239,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1198,7 +1247,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1206,7 +1255,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1214,7 +1263,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1222,7 +1271,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1230,7 +1279,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1238,7 +1287,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1246,7 +1295,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1254,7 +1303,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1262,7 +1311,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1270,7 +1319,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1278,7 +1327,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1286,7 +1335,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1294,7 +1343,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1302,7 +1351,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1310,7 +1359,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1318,7 +1367,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1326,7 +1375,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1334,7 +1383,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1342,7 +1391,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -1350,7 +1399,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1358,7 +1407,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1366,7 +1415,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1374,7 +1423,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1382,7 +1431,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1390,7 +1439,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1398,6 +1447,14 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
+    <row r="101" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Meeting Log.xlsx
+++ b/Meeting Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Day</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>Continue with fixing it getting stuck</t>
+  </si>
+  <si>
+    <t>5:30 - 7:00 pm</t>
+  </si>
+  <si>
+    <t>8:00 - 10:00 pm</t>
+  </si>
+  <si>
+    <t>Finished map generation</t>
+  </si>
+  <si>
+    <t>Level iteration screen</t>
   </si>
 </sst>
 </file>
@@ -145,7 +157,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,12 +190,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -207,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,12 +258,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -547,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -616,66 +616,66 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>43185</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
+      <c r="A6" s="14">
         <v>43186</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
@@ -728,36 +728,56 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="5">
+        <v>43192</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="10">
+        <v>43193</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
@@ -1439,22 +1459,6 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Meeting Log.xlsx
+++ b/Meeting Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>Day</t>
   </si>
@@ -129,6 +129,39 @@
   </si>
   <si>
     <t>Level iteration screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level Iteration logic </t>
+  </si>
+  <si>
+    <t>Home screen and player UI</t>
+  </si>
+  <si>
+    <t>continue merging map and character</t>
+  </si>
+  <si>
+    <t>7:00 - 10:00 pm</t>
+  </si>
+  <si>
+    <t>4:00 - 10:00 pm</t>
+  </si>
+  <si>
+    <t>Merge map and characters</t>
+  </si>
+  <si>
+    <t>Continue with merging</t>
+  </si>
+  <si>
+    <t>Stage 1</t>
+  </si>
+  <si>
+    <t>Finalize merging and finish attack</t>
+  </si>
+  <si>
+    <t>2:00 - pm</t>
+  </si>
+  <si>
+    <t>Start merging map anc characters</t>
   </si>
 </sst>
 </file>
@@ -157,7 +190,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +233,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDC9CCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -213,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,6 +309,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -268,6 +346,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDC9CCE"/>
       <color rgb="FFFFCC00"/>
       <color rgb="FFFF9933"/>
       <color rgb="FFFF6600"/>
@@ -547,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -757,43 +836,93 @@
       <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="F12" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="22">
+        <v>43194</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="16">
+        <v>43196</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="18">
+        <v>43197</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="20">
+        <v>43198</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
@@ -1459,6 +1588,14 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
+    <row r="100" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
